--- a/medicine/Psychotrope/Industrias_La_Constancia/Industrias_La_Constancia.xlsx
+++ b/medicine/Psychotrope/Industrias_La_Constancia/Industrias_La_Constancia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Industrias La Constancia est la plus grande brasserie du Salvador, fondée en 1903. Actuellement elle domine une grande partie du marché d'exportation salvadorienne dans le domaine de la bière et de l'eau en bouteille. Depuis 2005, la société est devenue une partie de la deuxième plus grande brasserie dans le monde, SABMiller.
